--- a/xlsx/荷马_intext.xlsx
+++ b/xlsx/荷马_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>荷马</t>
   </si>
@@ -29,7 +29,7 @@
     <t>希腊化时期</t>
   </si>
   <si>
-    <t>政策_政策_政治學_荷马</t>
+    <t>政策_政策_政治学_荷马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古典文學</t>
+    <t>古典文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%83%E6%A0%BC%E7%BD%97</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>維吉爾</t>
+    <t>维吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%86%E4%B8%81</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E5%A4%9A%C2%B7%E9%9B%A8%E6%9E%9C</t>
   </si>
   <si>
-    <t>維克多·雨果</t>
+    <t>维克多·雨果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%94%A1%E5%B0%BC%E6%96%87%E6%98%8E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB</t>
   </si>
   <si>
-    <t>巴比倫</t>
+    <t>巴比伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%91%9E%E8%A5%BF%E9%98%BF%E6%96%AF</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A9%B2%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞該亞人</t>
+    <t>亚该亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%96%80%E7%90%89%E6%96%AF</t>
@@ -275,33 +275,27 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%96%A9%E5%9F%BA%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊薩基島</t>
+    <t>伊萨基岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%BE%B7%E4%BF%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>奧德修斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%A5%BF%E7%89%B9%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>庇西特拉圖</t>
+    <t>庇西特拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%AB%BE%E5%A4%9A%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>澤諾多托斯</t>
+    <t>泽诺多托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>特洛伊戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
   </si>
   <si>
@@ -311,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%85%A5%E7%94%9F</t>
   </si>
   <si>
-    <t>王煥生</t>
+    <t>王焕生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E4%B8%AD%E6%A2%85</t>
   </si>
   <si>
-    <t>陳中梅</t>
+    <t>陈中梅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Cambridge</t>
@@ -353,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -425,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>Template talk-古希臘</t>
+    <t>Template talk-古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%96%87%E6%98%8E</t>
@@ -491,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古風時期</t>
+    <t>古风时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古典希臘時期</t>
+    <t>古典希腊时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘化時代的希臘</t>
+    <t>希腊化时代的希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
@@ -515,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>達達尼爾海峽</t>
+    <t>达达尼尔海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓王國</t>
+    <t>马其顿王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
   </si>
   <si>
-    <t>底比斯 (希臘)</t>
+    <t>底比斯 (希腊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
   </si>
   <si>
-    <t>溫泉關</t>
+    <t>温泉关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛奧尼亞</t>
+    <t>爱奥尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%BD</t>
@@ -677,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>古希臘殖民地</t>
+    <t>古希腊殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘農業</t>
+    <t>古希腊农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>古希臘經濟</t>
+    <t>古希腊经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -713,25 +707,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>古希臘法律</t>
+    <t>古希腊法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘賣淫業</t>
+    <t>古希腊卖淫业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古希臘宗教</t>
+    <t>古希腊宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>希臘英雄崇拜</t>
+    <t>希腊英雄崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -761,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
   </si>
   <si>
-    <t>古希臘葡萄酒</t>
+    <t>古希腊葡萄酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古希臘同性戀</t>
+    <t>古希腊同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>古希臘少年愛</t>
+    <t>古希腊少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>高爾吉亞</t>
+    <t>高尔吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
@@ -929,9 +923,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%A5%BF%E4%BF%84%E5%BE%B7</t>
   </si>
   <si>
@@ -959,13 +950,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
+    <t>普鲁塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
   </si>
   <si>
-    <t>阿斯帕齊婭</t>
+    <t>阿斯帕齐娅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>來古格士</t>
+    <t>来古格士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
@@ -1097,19 +1088,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古希臘建築</t>
+    <t>古希腊建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>古希臘神廟</t>
+    <t>古希腊神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>帕德嫩神廟</t>
+    <t>帕德嫩神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
   </si>
   <si>
-    <t>雅典衛城</t>
+    <t>雅典卫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神廟</t>
+    <t>奥林匹亚宙斯神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -1145,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古希臘神廟列表</t>
+    <t>古希腊神庙列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>古希臘藝術</t>
+    <t>古希腊艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%99%B6%E5%99%A8</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
   </si>
   <si>
-    <t>古希臘雕刻</t>
+    <t>古希腊雕刻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
@@ -1175,13 +1166,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>希臘史學</t>
+    <t>希腊史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古希臘天文學</t>
+    <t>古希腊天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
@@ -1193,37 +1184,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
+    <t>古希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始希臘語</t>
+    <t>原始希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁錫尼希臘語</t>
+    <t>迈锡尼希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿提卡希臘語</t>
+    <t>阿提卡希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>古馬其頓語</t>
+    <t>古马其顿语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用希臘語</t>
+    <t>通用希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>塞浦路斯音節文字</t>
+    <t>塞浦路斯音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>優卑亞字母</t>
+    <t>优卑亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E8%8D%B7%E9%A6%AC</t>
@@ -2889,7 +2880,7 @@
         <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2915,10 +2906,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2944,10 +2935,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2973,10 +2964,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3002,10 +2993,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3031,10 +3022,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3060,10 +3051,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3089,10 +3080,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -3118,10 +3109,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3147,10 +3138,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3176,10 +3167,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3205,10 +3196,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3234,10 +3225,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3263,10 +3254,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3292,10 +3283,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3321,10 +3312,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3350,10 +3341,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3379,10 +3370,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3408,10 +3399,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3437,10 +3428,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3466,10 +3457,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3495,10 +3486,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3524,10 +3515,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3553,10 +3544,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3582,10 +3573,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3611,10 +3602,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3640,10 +3631,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3669,10 +3660,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3698,10 +3689,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3727,10 +3718,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3756,10 +3747,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>8</v>
@@ -3785,10 +3776,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3814,10 +3805,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3843,10 +3834,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3872,10 +3863,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3901,10 +3892,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3930,10 +3921,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3959,10 +3950,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3988,10 +3979,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4017,10 +4008,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4046,10 +4037,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4075,10 +4066,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4104,10 +4095,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4133,10 +4124,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4162,10 +4153,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4191,10 +4182,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4220,10 +4211,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4249,10 +4240,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4278,10 +4269,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4307,10 +4298,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4336,10 +4327,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4365,10 +4356,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4394,10 +4385,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4423,10 +4414,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4452,10 +4443,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4481,10 +4472,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4510,10 +4501,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4539,10 +4530,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4568,10 +4559,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4597,10 +4588,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4626,10 +4617,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4655,10 +4646,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4684,10 +4675,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4713,10 +4704,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4742,10 +4733,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4771,10 +4762,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4800,10 +4791,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4829,10 +4820,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4858,10 +4849,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4887,10 +4878,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4916,10 +4907,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4945,10 +4936,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4974,10 +4965,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5003,10 +4994,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5032,10 +5023,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5061,10 +5052,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5090,10 +5081,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5119,10 +5110,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5148,10 +5139,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5177,10 +5168,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5206,10 +5197,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5235,10 +5226,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5264,10 +5255,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5293,10 +5284,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5322,10 +5313,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5351,10 +5342,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5380,10 +5371,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5409,10 +5400,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5438,10 +5429,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5467,10 +5458,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5496,10 +5487,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5525,10 +5516,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5554,10 +5545,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5583,10 +5574,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5612,10 +5603,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5641,10 +5632,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5670,10 +5661,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5699,10 +5690,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5728,10 +5719,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5757,10 +5748,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5786,10 +5777,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5815,10 +5806,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5844,10 +5835,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5873,10 +5864,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5902,10 +5893,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -5931,10 +5922,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5960,10 +5951,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5989,10 +5980,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6018,10 +6009,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6047,10 +6038,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6076,10 +6067,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6105,10 +6096,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6134,10 +6125,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6163,10 +6154,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6192,10 +6183,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6221,10 +6212,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6250,10 +6241,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6279,10 +6270,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6308,10 +6299,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6337,10 +6328,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6366,10 +6357,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6395,10 +6386,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6424,10 +6415,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6453,10 +6444,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6482,10 +6473,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6511,10 +6502,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6540,10 +6531,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6569,10 +6560,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6598,10 +6589,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6627,10 +6618,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6656,10 +6647,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6685,10 +6676,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6714,10 +6705,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6743,10 +6734,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6772,10 +6763,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6801,10 +6792,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6830,10 +6821,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6859,10 +6850,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6888,10 +6879,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6917,10 +6908,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6946,10 +6937,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6975,10 +6966,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7004,10 +6995,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7033,10 +7024,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7062,10 +7053,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7091,10 +7082,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7120,10 +7111,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7149,10 +7140,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F191" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7178,10 +7169,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7207,10 +7198,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7236,10 +7227,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7265,10 +7256,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7294,10 +7285,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7323,10 +7314,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7352,10 +7343,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7381,10 +7372,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7410,10 +7401,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7439,10 +7430,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7468,10 +7459,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7497,10 +7488,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7526,10 +7517,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7555,10 +7546,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7584,10 +7575,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7613,10 +7604,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7642,10 +7633,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7671,10 +7662,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7700,10 +7691,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7729,10 +7720,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>

--- a/xlsx/荷马_intext.xlsx
+++ b/xlsx/荷马_intext.xlsx
@@ -29,7 +29,7 @@
     <t>希腊化时期</t>
   </si>
   <si>
-    <t>政策_政策_政治學_荷马</t>
+    <t>体育运动_体育运动_古希腊_荷马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A6%86</t>
